--- a/overige_bestanden/exel_files/Strokenplanning_Kingdom_Hearts.xlsx
+++ b/overige_bestanden/exel_files/Strokenplanning_Kingdom_Hearts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoahM\Documents\Vista Software Developer\Leerjaar 1\kingdomhearts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoahM\Documents\Vista Software Developer\Leerjaar 1\kingdomhearts\overige_bestanden\exel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CCF484A-7DE8-4808-8F36-421CE56466AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4677479-DB43-4209-8F0E-C278668C14AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A271F007-5F3A-7D4F-BAC4-1FC3717E9032}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
   <si>
     <t>Strokenplanning</t>
   </si>
@@ -175,13 +175,19 @@
   </si>
   <si>
     <t>Keuzendeel opdrachten</t>
+  </si>
+  <si>
+    <t>Alle</t>
+  </si>
+  <si>
+    <t>Teamgenoot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -210,8 +216,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +261,16 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -260,11 +290,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -278,9 +310,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -288,8 +317,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -603,13 +639,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F995B880-CCF8-5A4B-A2D1-8FB852A607F7}">
-  <dimension ref="A1:U66"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L57" sqref="L57"/>
+      <selection pane="bottomRight" activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -617,6 +653,7 @@
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="56.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="27.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="31.5" x14ac:dyDescent="0.5">
@@ -626,27 +663,27 @@
     </row>
     <row r="2" spans="1:18" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -716,7 +753,7 @@
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -724,7 +761,7 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -732,7 +769,7 @@
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -740,7 +777,7 @@
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -748,7 +785,7 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -764,7 +801,7 @@
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="4"/>
@@ -773,7 +810,7 @@
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -781,7 +818,7 @@
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -789,7 +826,7 @@
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -817,7 +854,7 @@
       <c r="C20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -828,7 +865,7 @@
       <c r="C21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -839,17 +876,17 @@
       <c r="C22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>27</v>
+      <c r="G22" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -859,17 +896,17 @@
       <c r="C23" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N23" s="10" t="s">
-        <v>27</v>
+      <c r="J23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -879,8 +916,11 @@
       <c r="C24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="N24" s="10" t="s">
-        <v>27</v>
+      <c r="N24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -991,13 +1031,14 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O38" s="10" t="s">
-        <v>27</v>
+      <c r="O38" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
@@ -1015,7 +1056,7 @@
       <c r="B40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="9" t="s">
         <v>27</v>
       </c>
       <c r="N40" s="4"/>
@@ -1030,7 +1071,7 @@
       <c r="B41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J41" s="10" t="s">
+      <c r="J41" s="9" t="s">
         <v>27</v>
       </c>
       <c r="N41" s="4"/>
@@ -1045,7 +1086,7 @@
       <c r="B42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N42" s="10" t="s">
+      <c r="N42" s="9" t="s">
         <v>27</v>
       </c>
       <c r="O42" s="4"/>
@@ -1059,8 +1100,8 @@
       <c r="B43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N43" s="10" t="s">
-        <v>27</v>
+      <c r="N43" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
@@ -1091,7 +1132,7 @@
       <c r="B46" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="9" t="s">
         <v>27</v>
       </c>
       <c r="S46" s="4"/>
@@ -1101,18 +1142,12 @@
       <c r="B47" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="Q48" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="2"/>
-      <c r="C49" s="7"/>
-    </row>
-    <row r="50" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+      <c r="Q47" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D50" s="3"/>
@@ -1131,103 +1166,46 @@
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
     </row>
-    <row r="51" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="13" t="s">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="12"/>
-      <c r="U51" s="12"/>
-    </row>
-    <row r="52" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="13"/>
+      <c r="D51" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="F52" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K52" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="P52" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="2"/>
-      <c r="C53" s="7"/>
-    </row>
-    <row r="54" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="2"/>
-      <c r="C54" s="7"/>
-    </row>
-    <row r="55" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
-      <c r="C55" s="7"/>
-    </row>
-    <row r="56" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="2"/>
-      <c r="C56" s="7"/>
-    </row>
-    <row r="57" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="2"/>
-      <c r="C57" s="7"/>
-    </row>
-    <row r="58" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="2"/>
-      <c r="C58" s="7"/>
-    </row>
-    <row r="59" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="2"/>
-      <c r="C59" s="7"/>
-    </row>
-    <row r="60" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="2"/>
-      <c r="C60" s="7"/>
-    </row>
-    <row r="61" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="2"/>
-      <c r="C61" s="7"/>
-    </row>
-    <row r="62" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="2"/>
-      <c r="C62" s="7"/>
-    </row>
-    <row r="63" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="2"/>
-      <c r="C63" s="7"/>
-    </row>
-    <row r="64" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="2"/>
-      <c r="C64" s="7"/>
-    </row>
-    <row r="65" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="2"/>
-      <c r="C65" s="7"/>
-    </row>
-    <row r="66" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="2"/>
-      <c r="C66" s="7"/>
+      <c r="F52" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P52" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/overige_bestanden/exel_files/Strokenplanning_Kingdom_Hearts.xlsx
+++ b/overige_bestanden/exel_files/Strokenplanning_Kingdom_Hearts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoahM\Documents\Vista Software Developer\Leerjaar 1\kingdomhearts\overige_bestanden\exel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4677479-DB43-4209-8F0E-C278668C14AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A326167-B1E8-4F10-8EFF-BB1EF6FC62FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A271F007-5F3A-7D4F-BAC4-1FC3717E9032}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
   <si>
     <t>Strokenplanning</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>Teamgenoot</t>
+  </si>
+  <si>
+    <t>Jason</t>
   </si>
 </sst>
 </file>
@@ -296,14 +299,13 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -317,11 +319,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -645,14 +647,14 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M41" sqref="M41"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="56.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.125" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -663,27 +665,27 @@
     </row>
     <row r="2" spans="1:18" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14" t="s">
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -692,7 +694,7 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
@@ -741,19 +743,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -761,7 +763,7 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -769,7 +771,7 @@
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -777,7 +779,7 @@
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -785,32 +787,31 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="D9" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="4"/>
+      <c r="D13" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -818,7 +819,7 @@
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -826,16 +827,16 @@
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="D16" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="8"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="7"/>
       <c r="E19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -847,307 +848,148 @@
       <c r="O19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I21" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M23" s="16" t="s">
+      <c r="L23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="N23" s="16" t="s">
+      <c r="N23" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O24" s="16" t="s">
+      <c r="N24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O24" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-    </row>
-    <row r="37" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="8"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="7"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O38" s="15" t="s">
+      <c r="O38" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H40" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H40" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J41" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J41" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N42" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N42" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N43" s="15" t="s">
+      <c r="N43" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-    </row>
-    <row r="45" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+    </row>
+    <row r="45" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="8"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="7"/>
       <c r="E45" s="3"/>
       <c r="Q45" s="3"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E46" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E46" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q47" s="15" t="s">
+      <c r="Q47" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+    <row r="50" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
         <v>45</v>
       </c>
       <c r="D50" s="3"/>
@@ -1167,43 +1009,43 @@
       <c r="R50" s="3"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12" t="s">
+      <c r="A51" s="10"/>
+      <c r="B51" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11"/>
-      <c r="U51" s="11"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F52" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K52" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P52" s="9" t="s">
+      <c r="F52" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P52" s="8" t="s">
         <v>27</v>
       </c>
     </row>
